--- a/Sprint2 5Schuhljahr.xlsx
+++ b/Sprint2 5Schuhljahr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68AEB7B-201E-4C7C-B8A8-57785AA92062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1868932C-7458-4B00-9277-8103DC1E07E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="1" xr2:uid="{DE4AF553-B22C-4BF0-B016-1373DC96BC61}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Zeiterfassung 5 Schuljahr</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Logic für das einfügen #44</t>
+  </si>
+  <si>
+    <t>Datenbank Checksum #43</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1395,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,12 +1721,12 @@
         <v>0.3125</v>
       </c>
       <c r="D9" s="54">
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="54">
         <f t="shared" ref="F9:F17" si="0">SUM(D9-C9)</f>
-        <v>0.35416666666666663</v>
+        <v>0.27083333333333337</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>15</v>
@@ -1831,16 +1834,18 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D11" s="54">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="E11" s="54">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F11" s="54">
         <f>SUM(D11-C11-E11)</f>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="G11" s="28"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
       <c r="J11" s="21" t="s">
@@ -1988,7 +1993,7 @@
       <c r="E14" s="62"/>
       <c r="F14" s="61">
         <f>SUM(F11+F9)</f>
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666674</v>
       </c>
       <c r="G14" s="49"/>
       <c r="H14" s="49"/>
@@ -2233,11 +2238,10 @@
       <c r="E29" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="51">
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="W12:W13"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="G10:I11"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B9:B10"/>
@@ -2267,11 +2271,13 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="P11:R12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
     <mergeCell ref="P9:R10"/>
     <mergeCell ref="Y9:AA10"/>
     <mergeCell ref="T9:T10"/>

--- a/Sprint2 5Schuhljahr.xlsx
+++ b/Sprint2 5Schuhljahr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\4Schuljahr\syp\Projekt\multiflexlbkv\multiflexlbkv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1868932C-7458-4B00-9277-8103DC1E07E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9F554B-E669-46D0-8271-EB7394D9EA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="1" xr2:uid="{DE4AF553-B22C-4BF0-B016-1373DC96BC61}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12012" xr2:uid="{DE4AF553-B22C-4BF0-B016-1373DC96BC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hauptseite" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Zeiterfassung 5 Schuljahr</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Stunden</t>
   </si>
   <si>
-    <t>Sprint 18.Oktober-15.Noveber</t>
-  </si>
-  <si>
     <t>Erd erweitern</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Als PO möchte ich eine bessere Produkt erstell Übersicht haben #36</t>
   </si>
   <si>
-    <t>42:00</t>
-  </si>
-  <si>
     <t>Gesamt:</t>
   </si>
   <si>
@@ -108,20 +102,45 @@
     <t>Als PO möchte ich Kategorien erstellen können #39</t>
   </si>
   <si>
-    <t>Logic für das einfügen #44</t>
-  </si>
-  <si>
     <t>Datenbank Checksum #43</t>
+  </si>
+  <si>
+    <t>Sprint 18.Oktober-22.Noveber</t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>bug fixing</t>
+  </si>
+  <si>
+    <t>Checksumm #43</t>
+  </si>
+  <si>
+    <t>#44 #45 Product Logic</t>
+  </si>
+  <si>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>26:30</t>
+  </si>
+  <si>
+    <t>26:00</t>
+  </si>
+  <si>
+    <t>25:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +164,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -173,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -680,29 +706,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -711,9 +763,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -722,6 +772,19 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -729,6 +792,21 @@
     </border>
     <border>
       <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -742,71 +820,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,206 +977,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,56 +1363,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0065E909-0803-4647-889F-A411B5E1985E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="44"/>
+      <c r="A1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="75">
-        <v>0.60416666666666663</v>
+      <c r="B3" s="73" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="76">
-        <v>0.5625</v>
+      <c r="B4" s="74" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="77">
-        <v>0.58333333333333337</v>
+      <c r="B5" s="75" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="79" t="s">
-        <v>18</v>
+      <c r="A6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="72">
+        <f>SUM(B3+B5+B4)</f>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
@@ -1392,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74428210-A4B0-4DCC-AF03-A9A1BB509680}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,880 +1441,856 @@
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" customWidth="1"/>
+    <col min="29" max="29" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:29" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7" t="str">
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="50" t="str">
         <f>G7</f>
         <v>Sprint: September</v>
       </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="7" t="str">
+      <c r="Q7" s="51"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="50" t="str">
         <f>G7</f>
         <v>Sprint: September</v>
       </c>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14" t="s">
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="14" t="s">
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="X8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Y8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="16"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="31">
         <v>44875</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="29">
         <v>0.3125</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="54">
-        <f t="shared" ref="F9:F17" si="0">SUM(D9-C9)</f>
+      <c r="E9" s="27"/>
+      <c r="F9" s="29">
+        <f t="shared" ref="F9" si="0">SUM(D9-C9)</f>
         <v>0.27083333333333337</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21" t="s">
+      <c r="G9" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="31">
         <v>44854</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M9" s="54">
+      <c r="M9" s="29">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="54">
-        <f t="shared" ref="O9:O10" si="1">SUM(M9-L9)</f>
+      <c r="N9" s="27"/>
+      <c r="O9" s="29">
+        <f t="shared" ref="O9" si="1">SUM(M9-L9)</f>
         <v>0.25</v>
       </c>
-      <c r="P9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="14" t="s">
+      <c r="P9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="51">
+      <c r="T9" s="31">
         <v>44854</v>
       </c>
-      <c r="U9" s="54">
+      <c r="U9" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="V9" s="54">
+      <c r="V9" s="29">
         <v>0.83333333333333337</v>
       </c>
-      <c r="W9" s="58"/>
-      <c r="X9" s="54">
-        <f t="shared" ref="X9:X10" si="2">SUM(V9-U9)</f>
+      <c r="W9" s="27"/>
+      <c r="X9" s="29">
+        <f t="shared" ref="X9" si="2">SUM(V9-U9)</f>
         <v>0.25</v>
       </c>
-      <c r="Y9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="22" t="s">
+      <c r="Y9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AC9" s="23" t="s">
-        <v>18</v>
+      <c r="AC9" s="71">
+        <f>SUM(X17+O16+F17)</f>
+        <v>3.25</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="14" t="s">
+      <c r="K10" s="32"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="52"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="31">
         <v>44879</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="29">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="29">
         <v>0.75</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="29">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="29">
         <f>SUM(D11-C11-E11)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="21" t="s">
+      <c r="G11" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="31">
         <v>44854</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="29">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M11" s="54">
+      <c r="M11" s="29">
         <v>0.89583333333333337</v>
       </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="54">
-        <f t="shared" ref="O11:O12" si="3">SUM(M11-L11)</f>
+      <c r="N11" s="27"/>
+      <c r="O11" s="29">
+        <f t="shared" ref="O11" si="3">SUM(M11-L11)</f>
         <v>0.3125</v>
       </c>
-      <c r="P11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="14" t="s">
+      <c r="P11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="12">
         <v>44874</v>
       </c>
-      <c r="U11" s="53">
+      <c r="U11" s="21">
         <v>0.375</v>
       </c>
-      <c r="V11" s="53">
+      <c r="V11" s="21">
         <v>0.45833333333333331</v>
       </c>
-      <c r="W11" s="17"/>
-      <c r="X11" s="53">
+      <c r="W11" s="9"/>
+      <c r="X11" s="21">
         <f>SUM(V11-U11)</f>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="Y11" s="25" t="s">
+      <c r="Y11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="31">
+        <v>44854</v>
+      </c>
+      <c r="U12" s="29">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="V12" s="29">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="W12" s="27"/>
+      <c r="X12" s="29">
+        <f t="shared" ref="X12" si="4">SUM(V12-U12)</f>
+        <v>0.25</v>
+      </c>
+      <c r="Y12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="31" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="14" t="s">
+      <c r="K13" s="23">
+        <v>44882</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="21">
+        <f>SUM(M13-L13)</f>
+        <v>0.125</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="51">
-        <v>44854</v>
-      </c>
-      <c r="U12" s="54">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="V12" s="54">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="W12" s="58"/>
-      <c r="X12" s="54">
-        <f t="shared" ref="X12:X13" si="4">SUM(V12-U12)</f>
-        <v>0.25</v>
-      </c>
-      <c r="Y12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="32" t="s">
+      <c r="B14" s="56">
+        <v>44880</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="21">
+        <f>SUM(D14-C14)</f>
+        <v>0.125</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="23">
+        <v>44885</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="21">
+        <f>SUM(M14-L14)</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="63">
+        <v>44882</v>
+      </c>
+      <c r="U14" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="V14" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="W14" s="9"/>
+      <c r="X14" s="21">
+        <f>SUM(V14-U14)</f>
+        <v>0.125</v>
+      </c>
+      <c r="Y14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="61">
-        <f>SUM(O7:O12)</f>
-        <v>0.5625</v>
-      </c>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="73" t="s">
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="23">
+        <v>44882</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="21">
+        <f>SUM(D15-C15)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="67">
+        <v>44886</v>
+      </c>
+      <c r="L15" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M15" s="66">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N15" s="65"/>
+      <c r="O15" s="21">
+        <f>SUM(M15-L15)</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="66"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
+      <c r="T15" s="23">
+        <v>44885</v>
+      </c>
+      <c r="U15" s="21">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="V15" s="21">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="W15" s="9"/>
+      <c r="X15" s="21">
+        <f>SUM(V15-U15)</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="Y15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="15"/>
     </row>
-    <row r="14" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="61">
-        <f>SUM(F11+F9)</f>
-        <v>0.60416666666666674</v>
-      </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="61">
-        <f ca="1">SUM(X9:X14)</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
+    <row r="16" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="67">
+        <v>44886</v>
+      </c>
+      <c r="C16" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="66">
+        <v>0.9375</v>
+      </c>
+      <c r="E16" s="65"/>
+      <c r="F16" s="22">
+        <f>SUM(D16-C16)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="69">
+        <f>SUM(O7:O15)</f>
+        <v>1.0625</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="67">
+        <v>44886</v>
+      </c>
+      <c r="U16" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="V16" s="66">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="W16" s="65"/>
+      <c r="X16" s="21">
+        <f>SUM(V16-U16)</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="Y16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
     </row>
-    <row r="15" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="38"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
+    <row r="17" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="68">
+        <f>SUM(F8:F16)</f>
+        <v>1.1041666666666667</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="69">
+        <f>SUM(X8:X16)</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
+    <row r="18" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="57"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="Y12:AA13"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="P11:R12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="P9:R10"/>
+  <mergeCells count="57">
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="G12:I13"/>
     <mergeCell ref="Y9:AA10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:U10"/>
@@ -2290,6 +2302,50 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="P8:R8"/>
     <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="P11:R12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y12:AA13"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="P9:R10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
